--- a/AvWx.xlsx
+++ b/AvWx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Ashwin\Visual Studio\AvWx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ashwin\GoogleDrive\Programming\code\VS_8.1\AvWx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -782,8 +782,716 @@
     <t>NE, SE, SW, NW</t>
   </si>
   <si>
-    <r>
-      <t>"http://www.metcam.navcanada.ca/dawc_images/wxcam/" + "option" + "</t>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>N,E,S,W</t>
+  </si>
+  <si>
+    <t>SE,W</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>E,W</t>
+  </si>
+  <si>
+    <t>CYET</t>
+  </si>
+  <si>
+    <t>CYPY</t>
+  </si>
+  <si>
+    <t>NE,W</t>
+  </si>
+  <si>
+    <t>CYMM</t>
+  </si>
+  <si>
+    <t>SE,NW</t>
+  </si>
+  <si>
+    <t>CYOJ</t>
+  </si>
+  <si>
+    <t>N,SE</t>
+  </si>
+  <si>
+    <t>NE,S</t>
+  </si>
+  <si>
+    <t>CEC4</t>
+  </si>
+  <si>
+    <t>NE,SE,SW,NW</t>
+  </si>
+  <si>
+    <t>CYQL</t>
+  </si>
+  <si>
+    <t>NE,SE,W</t>
+  </si>
+  <si>
+    <t>CYLL</t>
+  </si>
+  <si>
+    <t>CYXH</t>
+  </si>
+  <si>
+    <t>CZPC</t>
+  </si>
+  <si>
+    <t>N,SE,SW</t>
+  </si>
+  <si>
+    <t>CYRM</t>
+  </si>
+  <si>
+    <t>S,W</t>
+  </si>
+  <si>
+    <t>CYZH</t>
+  </si>
+  <si>
+    <t>SW,NW</t>
+  </si>
+  <si>
+    <t>TM17</t>
+  </si>
+  <si>
+    <t>CYAL</t>
+  </si>
+  <si>
+    <t>TM13</t>
+  </si>
+  <si>
+    <t>CAJ4</t>
+  </si>
+  <si>
+    <t>E,S</t>
+  </si>
+  <si>
+    <t>CYSQ</t>
+  </si>
+  <si>
+    <t>CBBC</t>
+  </si>
+  <si>
+    <t>NE,SW</t>
+  </si>
+  <si>
+    <t>CYBD</t>
+  </si>
+  <si>
+    <t>CBW4</t>
+  </si>
+  <si>
+    <t>TM23</t>
+  </si>
+  <si>
+    <t>CYPZ</t>
+  </si>
+  <si>
+    <t>E,NW</t>
+  </si>
+  <si>
+    <t>TM02</t>
+  </si>
+  <si>
+    <t>TM05</t>
+  </si>
+  <si>
+    <t>NE,SW,NW</t>
+  </si>
+  <si>
+    <t>TM15</t>
+  </si>
+  <si>
+    <t>CYIN</t>
+  </si>
+  <si>
+    <t>CYDQ</t>
+  </si>
+  <si>
+    <t>E,SW</t>
+  </si>
+  <si>
+    <t>CYDL</t>
+  </si>
+  <si>
+    <t>CAJ9</t>
+  </si>
+  <si>
+    <t>TM14</t>
+  </si>
+  <si>
+    <t>TM06</t>
+  </si>
+  <si>
+    <t>CYGE</t>
+  </si>
+  <si>
+    <t>CYHE</t>
+  </si>
+  <si>
+    <t>N,S</t>
+  </si>
+  <si>
+    <t>CAA8</t>
+  </si>
+  <si>
+    <t>Kelowna</t>
+  </si>
+  <si>
+    <t>N,SW</t>
+  </si>
+  <si>
+    <t>CYLW</t>
+  </si>
+  <si>
+    <t>N,S,W</t>
+  </si>
+  <si>
+    <t>CYLI</t>
+  </si>
+  <si>
+    <t>S,NW</t>
+  </si>
+  <si>
+    <t>CWLY</t>
+  </si>
+  <si>
+    <t>CYZY</t>
+  </si>
+  <si>
+    <t>TM03</t>
+  </si>
+  <si>
+    <t>CAD5</t>
+  </si>
+  <si>
+    <t>CWWQ</t>
+  </si>
+  <si>
+    <t>N,NE,SE</t>
+  </si>
+  <si>
+    <t>TM12</t>
+  </si>
+  <si>
+    <t>CYPS</t>
+  </si>
+  <si>
+    <t>CBS8</t>
+  </si>
+  <si>
+    <t>CYPW</t>
+  </si>
+  <si>
+    <t>CYXS</t>
+  </si>
+  <si>
+    <t>S,W,NW</t>
+  </si>
+  <si>
+    <t>CYQZ</t>
+  </si>
+  <si>
+    <t>NE,S,NW</t>
+  </si>
+  <si>
+    <t>CYRV</t>
+  </si>
+  <si>
+    <t>NE,SE</t>
+  </si>
+  <si>
+    <t>CZAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N,E,S </t>
+  </si>
+  <si>
+    <t>N,E,W</t>
+  </si>
+  <si>
+    <t>E,S,NW</t>
+  </si>
+  <si>
+    <t>CYPR</t>
+  </si>
+  <si>
+    <t>TM21</t>
+  </si>
+  <si>
+    <t>CYZP</t>
+  </si>
+  <si>
+    <t>N,E,SW</t>
+  </si>
+  <si>
+    <t>TM20</t>
+  </si>
+  <si>
+    <t>N,SE,NW</t>
+  </si>
+  <si>
+    <t>CBY5</t>
+  </si>
+  <si>
+    <t>Smithers</t>
+  </si>
+  <si>
+    <t>CYYD</t>
+  </si>
+  <si>
+    <t>N,W</t>
+  </si>
+  <si>
+    <t>CYSE</t>
+  </si>
+  <si>
+    <t>SE,SW,NW</t>
+  </si>
+  <si>
+    <t>CBN9</t>
+  </si>
+  <si>
+    <t>CYVK</t>
+  </si>
+  <si>
+    <t>TM18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE,SW </t>
+  </si>
+  <si>
+    <t>CBE9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N,NE,S </t>
+  </si>
+  <si>
+    <t>TM07</t>
+  </si>
+  <si>
+    <t>CYBV</t>
+  </si>
+  <si>
+    <t>N,E,S,NW</t>
+  </si>
+  <si>
+    <t>CYYQ</t>
+  </si>
+  <si>
+    <t>CYDN</t>
+  </si>
+  <si>
+    <t>CYFO</t>
+  </si>
+  <si>
+    <t>CYYL</t>
+  </si>
+  <si>
+    <t>CYNE</t>
+  </si>
+  <si>
+    <t>CZJN</t>
+  </si>
+  <si>
+    <t>CYBQ</t>
+  </si>
+  <si>
+    <t>E,SW,W</t>
+  </si>
+  <si>
+    <t>CYFC</t>
+  </si>
+  <si>
+    <t>CYCH</t>
+  </si>
+  <si>
+    <t>CCS3</t>
+  </si>
+  <si>
+    <t>CZUM</t>
+  </si>
+  <si>
+    <t>CYMH</t>
+  </si>
+  <si>
+    <t>NE,NW</t>
+  </si>
+  <si>
+    <t>CNH2</t>
+  </si>
+  <si>
+    <t>CCZ2</t>
+  </si>
+  <si>
+    <t>CYAY</t>
+  </si>
+  <si>
+    <t>N,SE,SW,W</t>
+  </si>
+  <si>
+    <t>CYWK</t>
+  </si>
+  <si>
+    <t>CCC2</t>
+  </si>
+  <si>
+    <t>CYVL</t>
+  </si>
+  <si>
+    <t>SE,SW,W</t>
+  </si>
+  <si>
+    <t>CYWE</t>
+  </si>
+  <si>
+    <t>CCQ3</t>
+  </si>
+  <si>
+    <t>CYID</t>
+  </si>
+  <si>
+    <t>CYPD</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>CWSA</t>
+  </si>
+  <si>
+    <t>CYTN</t>
+  </si>
+  <si>
+    <t>CCW3</t>
+  </si>
+  <si>
+    <t>CYCY</t>
+  </si>
+  <si>
+    <t>CYHK</t>
+  </si>
+  <si>
+    <t>CYXP</t>
+  </si>
+  <si>
+    <t>CYIO</t>
+  </si>
+  <si>
+    <t>CYVM</t>
+  </si>
+  <si>
+    <t>La Tuque</t>
+  </si>
+  <si>
+    <t>Maniwaki</t>
+  </si>
+  <si>
+    <t>Matagami</t>
+  </si>
+  <si>
+    <t>Mont-Laurier</t>
+  </si>
+  <si>
+    <t>Matashquan</t>
+  </si>
+  <si>
+    <t>Port Menier</t>
+  </si>
+  <si>
+    <t>Puvirnituq</t>
+  </si>
+  <si>
+    <t>Schefferville</t>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+  </si>
+  <si>
+    <t>St-Georges</t>
+  </si>
+  <si>
+    <t>Trois Rivieres</t>
+  </si>
+  <si>
+    <t>Key Lake</t>
+  </si>
+  <si>
+    <t>Nipawin</t>
+  </si>
+  <si>
+    <t>North Battleford</t>
+  </si>
+  <si>
+    <t>Stony Rapid</t>
+  </si>
+  <si>
+    <t>Swift Current</t>
+  </si>
+  <si>
+    <t>Yorkton</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>St-Hubert</t>
+  </si>
+  <si>
+    <t>La Grande-4</t>
+  </si>
+  <si>
+    <t>Val d'Or</t>
+  </si>
+  <si>
+    <t>La Macaza/Mont-Tremblant</t>
+  </si>
+  <si>
+    <t>CNP3</t>
+  </si>
+  <si>
+    <t>CYAT</t>
+  </si>
+  <si>
+    <t>CNW3</t>
+  </si>
+  <si>
+    <t>CYTL</t>
+  </si>
+  <si>
+    <t>E,SE,SW</t>
+  </si>
+  <si>
+    <t>CYTZ</t>
+  </si>
+  <si>
+    <t>CNL3</t>
+  </si>
+  <si>
+    <t>CZBA</t>
+  </si>
+  <si>
+    <t>CYCE</t>
+  </si>
+  <si>
+    <t>CYCK</t>
+  </si>
+  <si>
+    <t>CNY3</t>
+  </si>
+  <si>
+    <t>CYCC</t>
+  </si>
+  <si>
+    <t>N,E,SE,SW</t>
+  </si>
+  <si>
+    <t>CYHD</t>
+  </si>
+  <si>
+    <t>CYXR</t>
+  </si>
+  <si>
+    <t>CYEL</t>
+  </si>
+  <si>
+    <t>CYER</t>
+  </si>
+  <si>
+    <t>CYZE</t>
+  </si>
+  <si>
+    <t>CPN4</t>
+  </si>
+  <si>
+    <t>CYHF</t>
+  </si>
+  <si>
+    <t>CNS7</t>
+  </si>
+  <si>
+    <t>CYKF</t>
+  </si>
+  <si>
+    <t>CYLH</t>
+  </si>
+  <si>
+    <t>CYPO</t>
+  </si>
+  <si>
+    <t>CYPQ</t>
+  </si>
+  <si>
+    <t>CZSJ</t>
+  </si>
+  <si>
+    <t>N,E</t>
+  </si>
+  <si>
+    <t>CYZR</t>
+  </si>
+  <si>
+    <t>CYSH</t>
+  </si>
+  <si>
+    <t>SE,SW</t>
+  </si>
+  <si>
+    <t>CYQS</t>
+  </si>
+  <si>
+    <t>CYQT</t>
+  </si>
+  <si>
+    <t>CYBC</t>
+  </si>
+  <si>
+    <t>CYVB</t>
+  </si>
+  <si>
+    <t>CYML</t>
+  </si>
+  <si>
+    <t>CYHR</t>
+  </si>
+  <si>
+    <t>E,S,W</t>
+  </si>
+  <si>
+    <t>CYGV</t>
+  </si>
+  <si>
+    <t>E,SW,W,NW</t>
+  </si>
+  <si>
+    <t>CYPH</t>
+  </si>
+  <si>
+    <t>CYGW</t>
+  </si>
+  <si>
+    <t>CYAH</t>
+  </si>
+  <si>
+    <t>CYFJ</t>
+  </si>
+  <si>
+    <t>CYLQ</t>
+  </si>
+  <si>
+    <t>CYMW</t>
+  </si>
+  <si>
+    <t>CYNM</t>
+  </si>
+  <si>
+    <t>CSD4</t>
+  </si>
+  <si>
+    <t>CYNA</t>
+  </si>
+  <si>
+    <t>CYMO</t>
+  </si>
+  <si>
+    <t>CYQA</t>
+  </si>
+  <si>
+    <t>CZMD</t>
+  </si>
+  <si>
+    <t>CYYB</t>
+  </si>
+  <si>
+    <t>CYKP</t>
+  </si>
+  <si>
+    <t>N,NE,NW</t>
+  </si>
+  <si>
+    <t>CYOO</t>
+  </si>
+  <si>
+    <t>CNK4</t>
+  </si>
+  <si>
+    <t>CYPN</t>
+  </si>
+  <si>
+    <t>N,SE,SW,NW</t>
+  </si>
+  <si>
+    <t>CYPX</t>
+  </si>
+  <si>
+    <t>CYKL</t>
+  </si>
+  <si>
+    <t>CYSC</t>
+  </si>
+  <si>
+    <t>CYSG</t>
+  </si>
+  <si>
+    <t>CYHU</t>
+  </si>
+  <si>
+    <t>CYRQ</t>
+  </si>
+  <si>
+    <t>CYVO</t>
+  </si>
+  <si>
+    <t>CYKJ</t>
+  </si>
+  <si>
+    <t>CYBU</t>
+  </si>
+  <si>
+    <t>CYQW</t>
+  </si>
+  <si>
+    <t>CYSF</t>
+  </si>
+  <si>
+    <t>CYYN</t>
+  </si>
+  <si>
+    <t>CYQV</t>
+  </si>
+  <si>
+    <t>CEX4</t>
+  </si>
+  <si>
+    <t>CYHT</t>
+  </si>
+  <si>
+    <t>TM22</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
+    <t>LatestPrev</t>
+  </si>
+  <si>
+    <r>
+      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/surface/</t>
     </r>
     <r>
       <rPr>
@@ -803,6 +1511,162 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>-analsfc.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/altitude/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-anal850.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/altitude/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-anal700.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/altitude/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-anal500.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/altitude/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-anal250.png</t>
+    </r>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>YYYYMMDDhhmm.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1h history)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>http://weather.gc.ca/data/lightning_images//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>_</t>
     </r>
     <r>
@@ -813,6 +1677,108 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>QUE</t>
+  </si>
+  <si>
+    <t>WRN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0000, 0300, 0600</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"http://www.metcam.navcanada.ca/dawc_images/wxcam/" + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/" + "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>DIR</t>
     </r>
     <r>
@@ -844,952 +1810,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>-e.jpeg"</t>
-    </r>
-  </si>
-  <si>
-    <t>DIR</t>
-  </si>
-  <si>
-    <t>N,E,S,W</t>
-  </si>
-  <si>
-    <t>SE,W</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>E,W</t>
-  </si>
-  <si>
-    <t>CYET</t>
-  </si>
-  <si>
-    <t>CYPY</t>
-  </si>
-  <si>
-    <t>NE,W</t>
-  </si>
-  <si>
-    <t>CYMM</t>
-  </si>
-  <si>
-    <t>SE,NW</t>
-  </si>
-  <si>
-    <t>CYOJ</t>
-  </si>
-  <si>
-    <t>N,SE</t>
-  </si>
-  <si>
-    <t>NE,S</t>
-  </si>
-  <si>
-    <t>CEC4</t>
-  </si>
-  <si>
-    <t>NE,SE,SW,NW</t>
-  </si>
-  <si>
-    <t>CYQL</t>
-  </si>
-  <si>
-    <t>NE,SE,W</t>
-  </si>
-  <si>
-    <t>CYLL</t>
-  </si>
-  <si>
-    <t>CYXH</t>
-  </si>
-  <si>
-    <t>CZPC</t>
-  </si>
-  <si>
-    <t>N,SE,SW</t>
-  </si>
-  <si>
-    <t>CYRM</t>
-  </si>
-  <si>
-    <t>S,W</t>
-  </si>
-  <si>
-    <t>CYZH</t>
-  </si>
-  <si>
-    <t>SW,NW</t>
-  </si>
-  <si>
-    <t>TM17</t>
-  </si>
-  <si>
-    <t>CYAL</t>
-  </si>
-  <si>
-    <t>TM13</t>
-  </si>
-  <si>
-    <t>CAJ4</t>
-  </si>
-  <si>
-    <t>E,S</t>
-  </si>
-  <si>
-    <t>CYSQ</t>
-  </si>
-  <si>
-    <t>CBBC</t>
-  </si>
-  <si>
-    <t>NE,SW</t>
-  </si>
-  <si>
-    <t>CYBD</t>
-  </si>
-  <si>
-    <t>CBW4</t>
-  </si>
-  <si>
-    <t>TM23</t>
-  </si>
-  <si>
-    <t>CYPZ</t>
-  </si>
-  <si>
-    <t>E,NW</t>
-  </si>
-  <si>
-    <t>TM02</t>
-  </si>
-  <si>
-    <t>TM05</t>
-  </si>
-  <si>
-    <t>NE,SW,NW</t>
-  </si>
-  <si>
-    <t>TM15</t>
-  </si>
-  <si>
-    <t>CYIN</t>
-  </si>
-  <si>
-    <t>CYDQ</t>
-  </si>
-  <si>
-    <t>E,SW</t>
-  </si>
-  <si>
-    <t>CYDL</t>
-  </si>
-  <si>
-    <t>CAJ9</t>
-  </si>
-  <si>
-    <t>TM14</t>
-  </si>
-  <si>
-    <t>TM06</t>
-  </si>
-  <si>
-    <t>CYGE</t>
-  </si>
-  <si>
-    <t>CYHE</t>
-  </si>
-  <si>
-    <t>N,S</t>
-  </si>
-  <si>
-    <t>CAA8</t>
-  </si>
-  <si>
-    <t>Kelowna</t>
-  </si>
-  <si>
-    <t>N,SW</t>
-  </si>
-  <si>
-    <t>CYLW</t>
-  </si>
-  <si>
-    <t>N,S,W</t>
-  </si>
-  <si>
-    <t>CYLI</t>
-  </si>
-  <si>
-    <t>S,NW</t>
-  </si>
-  <si>
-    <t>CWLY</t>
-  </si>
-  <si>
-    <t>CYZY</t>
-  </si>
-  <si>
-    <t>TM03</t>
-  </si>
-  <si>
-    <t>CAD5</t>
-  </si>
-  <si>
-    <t>CWWQ</t>
-  </si>
-  <si>
-    <t>N,NE,SE</t>
-  </si>
-  <si>
-    <t>TM12</t>
-  </si>
-  <si>
-    <t>CYPS</t>
-  </si>
-  <si>
-    <t>CBS8</t>
-  </si>
-  <si>
-    <t>CYPW</t>
-  </si>
-  <si>
-    <t>CYXS</t>
-  </si>
-  <si>
-    <t>S,W,NW</t>
-  </si>
-  <si>
-    <t>CYQZ</t>
-  </si>
-  <si>
-    <t>NE,S,NW</t>
-  </si>
-  <si>
-    <t>CYRV</t>
-  </si>
-  <si>
-    <t>NE,SE</t>
-  </si>
-  <si>
-    <t>CZAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N,E,S </t>
-  </si>
-  <si>
-    <t>N,E,W</t>
-  </si>
-  <si>
-    <t>E,S,NW</t>
-  </si>
-  <si>
-    <t>CYPR</t>
-  </si>
-  <si>
-    <t>TM21</t>
-  </si>
-  <si>
-    <t>CYZP</t>
-  </si>
-  <si>
-    <t>N,E,SW</t>
-  </si>
-  <si>
-    <t>TM20</t>
-  </si>
-  <si>
-    <t>N,SE,NW</t>
-  </si>
-  <si>
-    <t>CBY5</t>
-  </si>
-  <si>
-    <t>Smithers</t>
-  </si>
-  <si>
-    <t>CYYD</t>
-  </si>
-  <si>
-    <t>N,W</t>
-  </si>
-  <si>
-    <t>CYSE</t>
-  </si>
-  <si>
-    <t>SE,SW,NW</t>
-  </si>
-  <si>
-    <t>CBN9</t>
-  </si>
-  <si>
-    <t>CYVK</t>
-  </si>
-  <si>
-    <t>TM18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE,SW </t>
-  </si>
-  <si>
-    <t>CBE9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N,NE,S </t>
-  </si>
-  <si>
-    <t>TM07</t>
-  </si>
-  <si>
-    <t>CYBV</t>
-  </si>
-  <si>
-    <t>N,E,S,NW</t>
-  </si>
-  <si>
-    <t>CYYQ</t>
-  </si>
-  <si>
-    <t>CYDN</t>
-  </si>
-  <si>
-    <t>CYFO</t>
-  </si>
-  <si>
-    <t>CYYL</t>
-  </si>
-  <si>
-    <t>CYNE</t>
-  </si>
-  <si>
-    <t>CZJN</t>
-  </si>
-  <si>
-    <t>CYBQ</t>
-  </si>
-  <si>
-    <t>E,SW,W</t>
-  </si>
-  <si>
-    <t>CYFC</t>
-  </si>
-  <si>
-    <t>CYCH</t>
-  </si>
-  <si>
-    <t>CCS3</t>
-  </si>
-  <si>
-    <t>CZUM</t>
-  </si>
-  <si>
-    <t>CYMH</t>
-  </si>
-  <si>
-    <t>NE,NW</t>
-  </si>
-  <si>
-    <t>CNH2</t>
-  </si>
-  <si>
-    <t>CCZ2</t>
-  </si>
-  <si>
-    <t>CYAY</t>
-  </si>
-  <si>
-    <t>N,SE,SW,W</t>
-  </si>
-  <si>
-    <t>CYWK</t>
-  </si>
-  <si>
-    <t>CCC2</t>
-  </si>
-  <si>
-    <t>CYVL</t>
-  </si>
-  <si>
-    <t>SE,SW,W</t>
-  </si>
-  <si>
-    <t>CYWE</t>
-  </si>
-  <si>
-    <t>CCQ3</t>
-  </si>
-  <si>
-    <t>CYID</t>
-  </si>
-  <si>
-    <t>CYPD</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>CWSA</t>
-  </si>
-  <si>
-    <t>CYTN</t>
-  </si>
-  <si>
-    <t>CCW3</t>
-  </si>
-  <si>
-    <t>CYCY</t>
-  </si>
-  <si>
-    <t>CYHK</t>
-  </si>
-  <si>
-    <t>CYXP</t>
-  </si>
-  <si>
-    <t>CYIO</t>
-  </si>
-  <si>
-    <t>CYVM</t>
-  </si>
-  <si>
-    <t>La Tuque</t>
-  </si>
-  <si>
-    <t>Maniwaki</t>
-  </si>
-  <si>
-    <t>Matagami</t>
-  </si>
-  <si>
-    <t>Mont-Laurier</t>
-  </si>
-  <si>
-    <t>Matashquan</t>
-  </si>
-  <si>
-    <t>Port Menier</t>
-  </si>
-  <si>
-    <t>Puvirnituq</t>
-  </si>
-  <si>
-    <t>Schefferville</t>
-  </si>
-  <si>
-    <t>Sherbrooke</t>
-  </si>
-  <si>
-    <t>St-Georges</t>
-  </si>
-  <si>
-    <t>Trois Rivieres</t>
-  </si>
-  <si>
-    <t>Key Lake</t>
-  </si>
-  <si>
-    <t>Nipawin</t>
-  </si>
-  <si>
-    <t>North Battleford</t>
-  </si>
-  <si>
-    <t>Stony Rapid</t>
-  </si>
-  <si>
-    <t>Swift Current</t>
-  </si>
-  <si>
-    <t>Yorkton</t>
-  </si>
-  <si>
-    <t>Saskatchewan</t>
-  </si>
-  <si>
-    <t>St-Hubert</t>
-  </si>
-  <si>
-    <t>La Grande-4</t>
-  </si>
-  <si>
-    <t>Val d'Or</t>
-  </si>
-  <si>
-    <t>La Macaza/Mont-Tremblant</t>
-  </si>
-  <si>
-    <t>CNP3</t>
-  </si>
-  <si>
-    <t>CYAT</t>
-  </si>
-  <si>
-    <t>CNW3</t>
-  </si>
-  <si>
-    <t>CYTL</t>
-  </si>
-  <si>
-    <t>E,SE,SW</t>
-  </si>
-  <si>
-    <t>CYTZ</t>
-  </si>
-  <si>
-    <t>CNL3</t>
-  </si>
-  <si>
-    <t>CZBA</t>
-  </si>
-  <si>
-    <t>CYCE</t>
-  </si>
-  <si>
-    <t>CYCK</t>
-  </si>
-  <si>
-    <t>CNY3</t>
-  </si>
-  <si>
-    <t>CYCC</t>
-  </si>
-  <si>
-    <t>N,E,SE,SW</t>
-  </si>
-  <si>
-    <t>CYHD</t>
-  </si>
-  <si>
-    <t>CYXR</t>
-  </si>
-  <si>
-    <t>CYEL</t>
-  </si>
-  <si>
-    <t>CYER</t>
-  </si>
-  <si>
-    <t>CYZE</t>
-  </si>
-  <si>
-    <t>CPN4</t>
-  </si>
-  <si>
-    <t>CYHF</t>
-  </si>
-  <si>
-    <t>CNS7</t>
-  </si>
-  <si>
-    <t>CYKF</t>
-  </si>
-  <si>
-    <t>CYLH</t>
-  </si>
-  <si>
-    <t>CYPO</t>
-  </si>
-  <si>
-    <t>CYPQ</t>
-  </si>
-  <si>
-    <t>CZSJ</t>
-  </si>
-  <si>
-    <t>N,E</t>
-  </si>
-  <si>
-    <t>CYZR</t>
-  </si>
-  <si>
-    <t>CYSH</t>
-  </si>
-  <si>
-    <t>SE,SW</t>
-  </si>
-  <si>
-    <t>CYQS</t>
-  </si>
-  <si>
-    <t>CYQT</t>
-  </si>
-  <si>
-    <t>CYBC</t>
-  </si>
-  <si>
-    <t>CYVB</t>
-  </si>
-  <si>
-    <t>CYML</t>
-  </si>
-  <si>
-    <t>CYHR</t>
-  </si>
-  <si>
-    <t>E,S,W</t>
-  </si>
-  <si>
-    <t>CYGV</t>
-  </si>
-  <si>
-    <t>E,SW,W,NW</t>
-  </si>
-  <si>
-    <t>CYPH</t>
-  </si>
-  <si>
-    <t>CYGW</t>
-  </si>
-  <si>
-    <t>CYAH</t>
-  </si>
-  <si>
-    <t>CYFJ</t>
-  </si>
-  <si>
-    <t>CYLQ</t>
-  </si>
-  <si>
-    <t>CYMW</t>
-  </si>
-  <si>
-    <t>CYNM</t>
-  </si>
-  <si>
-    <t>CSD4</t>
-  </si>
-  <si>
-    <t>CYNA</t>
-  </si>
-  <si>
-    <t>CYMO</t>
-  </si>
-  <si>
-    <t>CYQA</t>
-  </si>
-  <si>
-    <t>CZMD</t>
-  </si>
-  <si>
-    <t>CYYB</t>
-  </si>
-  <si>
-    <t>CYKP</t>
-  </si>
-  <si>
-    <t>N,NE,NW</t>
-  </si>
-  <si>
-    <t>CYOO</t>
-  </si>
-  <si>
-    <t>CNK4</t>
-  </si>
-  <si>
-    <t>CYPN</t>
-  </si>
-  <si>
-    <t>N,SE,SW,NW</t>
-  </si>
-  <si>
-    <t>CYPX</t>
-  </si>
-  <si>
-    <t>CYKL</t>
-  </si>
-  <si>
-    <t>CYSC</t>
-  </si>
-  <si>
-    <t>CYSG</t>
-  </si>
-  <si>
-    <t>CYHU</t>
-  </si>
-  <si>
-    <t>CYRQ</t>
-  </si>
-  <si>
-    <t>CYVO</t>
-  </si>
-  <si>
-    <t>CYKJ</t>
-  </si>
-  <si>
-    <t>CYBU</t>
-  </si>
-  <si>
-    <t>CYQW</t>
-  </si>
-  <si>
-    <t>CYSF</t>
-  </si>
-  <si>
-    <t>CYYN</t>
-  </si>
-  <si>
-    <t>CYQV</t>
-  </si>
-  <si>
-    <t>CEX4</t>
-  </si>
-  <si>
-    <t>CYHT</t>
-  </si>
-  <si>
-    <t>TM22</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>previous</t>
-  </si>
-  <si>
-    <t>Latest</t>
-  </si>
-  <si>
-    <t>LatestPrev</t>
-  </si>
-  <si>
-    <r>
-      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/surface/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>option</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-analsfc.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/altitude/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>option</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-anal850.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/altitude/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>option</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-anal700.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/altitude/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>option</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-anal500.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https://flightplanning.navcanada.ca/Latest/anglais/produits/analyses/altitude/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>option</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-anal250.png</t>
-    </r>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
-    <t>YYYYMMDDhhmm.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1h history)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>http://weather.gc.ca/data/lightning_images//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <t>ARC</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>ONT</t>
-  </si>
-  <si>
-    <t>QUE</t>
-  </si>
-  <si>
-    <t>WRN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 0000, 0300, 0600</t>
     </r>
   </si>
 </sst>
@@ -2118,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,22 +2166,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -2175,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2183,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2191,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2199,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2291,10 +2311,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2310,10 +2330,10 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,7 +2341,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2329,7 +2349,7 @@
         <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2337,7 +2357,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,7 +2365,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,7 +2373,7 @@
         <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,7 +2429,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,10 +2445,10 @@
         <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,10 +2462,10 @@
         <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2456,7 +2476,7 @@
         <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2475,10 +2495,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,10 +2506,10 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" t="s">
         <v>197</v>
-      </c>
-      <c r="D45" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,10 +2517,10 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
         <v>199</v>
-      </c>
-      <c r="D46" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2508,10 +2528,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
         <v>201</v>
-      </c>
-      <c r="D47" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,10 +2539,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,10 +2550,10 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,10 +2561,10 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,10 +2572,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,10 +2583,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,10 +2594,10 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,10 +2605,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,10 +2619,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,10 +2630,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,10 +2641,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,10 +2652,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,10 +2663,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2654,10 +2674,10 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,10 +2685,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,10 +2696,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,10 +2707,10 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,10 +2718,10 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -2709,10 +2729,10 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -2720,10 +2740,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -2731,10 +2751,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -2742,10 +2762,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -2753,10 +2773,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -2764,10 +2784,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -2775,10 +2795,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -2786,10 +2806,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -2797,10 +2817,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -2808,10 +2828,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -2819,10 +2839,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -2830,21 +2850,21 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" t="s">
         <v>244</v>
-      </c>
-      <c r="C77" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -2852,10 +2872,10 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -2863,10 +2883,10 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -2874,10 +2894,10 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -2885,10 +2905,10 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -2896,10 +2916,10 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -2907,10 +2927,10 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -2918,10 +2938,10 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -2929,10 +2949,10 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
@@ -2940,10 +2960,10 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
@@ -2951,10 +2971,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -2962,10 +2982,10 @@
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
@@ -2973,10 +2993,10 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -2984,10 +3004,10 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -2995,10 +3015,10 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
@@ -3006,10 +3026,10 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -3017,10 +3037,10 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
@@ -3028,10 +3048,10 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
@@ -3039,10 +3059,10 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -3050,21 +3070,21 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" t="s">
         <v>277</v>
       </c>
-      <c r="C97" t="s">
-        <v>278</v>
-      </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,10 +3092,10 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,10 +3103,10 @@
         <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3094,10 +3114,10 @@
         <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,10 +3125,10 @@
         <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,10 +3136,10 @@
         <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3127,10 +3147,10 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3141,10 +3161,10 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3152,10 +3172,10 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,10 +3183,10 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,10 +3194,10 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,10 +3205,10 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,10 +3216,10 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3207,10 +3227,10 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3218,10 +3238,10 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,10 +3252,10 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,10 +3263,10 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,10 +3274,10 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,10 +3288,10 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3279,10 +3299,10 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,10 +3310,10 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,10 +3321,10 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3312,10 +3332,10 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3323,10 +3343,10 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,10 +3354,10 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,10 +3368,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,10 +3379,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D123" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,10 +3393,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,10 +3404,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,10 +3415,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,10 +3426,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3417,10 +3437,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D128" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,10 +3448,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3442,10 +3462,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3453,10 +3473,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D131" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3464,10 +3484,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,10 +3495,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3486,10 +3506,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D134" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3500,10 +3520,10 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,10 +3531,10 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3522,10 +3542,10 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D137" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3533,10 +3553,10 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D138" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,10 +3564,10 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D139" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,10 +3575,10 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,10 +3586,10 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,10 +3597,10 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,10 +3608,10 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D143" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3599,10 +3619,10 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D144" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
@@ -3610,10 +3630,10 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D145" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
@@ -3621,10 +3641,10 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D146" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
@@ -3632,10 +3652,10 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D147" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
@@ -3643,10 +3663,10 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D148" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
@@ -3654,10 +3674,10 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D149" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
@@ -3665,10 +3685,10 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
@@ -3676,10 +3696,10 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
@@ -3687,10 +3707,10 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D152" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
@@ -3698,10 +3718,10 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D153" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
@@ -3709,10 +3729,10 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D154" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
@@ -3720,10 +3740,10 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
@@ -3731,10 +3751,10 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
@@ -3742,10 +3762,10 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D157" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
@@ -3753,10 +3773,10 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D158" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
@@ -3764,10 +3784,10 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D159" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
@@ -3775,10 +3795,10 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D160" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3786,10 +3806,10 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D161" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,10 +3817,10 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3808,10 +3828,10 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D163" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,10 +3839,10 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D164" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3830,10 +3850,10 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D165" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,10 +3861,10 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D166" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,10 +3872,10 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D167" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3863,10 +3883,10 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D168" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3874,10 +3894,10 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3888,10 +3908,10 @@
         <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,10 +3919,10 @@
         <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,10 +3930,10 @@
         <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D172" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,10 +3941,10 @@
         <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D173" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,10 +3952,10 @@
         <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D174" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,10 +3963,10 @@
         <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D175" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3954,244 +3974,244 @@
         <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D176" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C177" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D177" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C178" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D178" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C179" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D179" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C180" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D180" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C181" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D181" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C182" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D182" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C183" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C184" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D184" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D185" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D186" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C188" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C189" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D189" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C190" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D190" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C191" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D191" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B192" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C192" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D192" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C193" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D193" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C194" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D194" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C195" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C196" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D196" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C197" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4202,10 +4222,10 @@
         <v>182</v>
       </c>
       <c r="C198" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D198" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,10 +4233,10 @@
         <v>183</v>
       </c>
       <c r="C199" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D199" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4224,10 +4244,10 @@
         <v>184</v>
       </c>
       <c r="C200" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
